--- a/static/uploads/excels/results.xlsx
+++ b/static/uploads/excels/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D649378A-DF39-4725-8B14-D346BDCA24E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B9970C-4708-4C0D-90CF-D5ED1B9CD299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="J379" sqref="A374:J379"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="H374" sqref="H374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
